--- a/biology/Botanique/Sauvagesia/Sauvagesia.xlsx
+++ b/biology/Botanique/Sauvagesia/Sauvagesia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sauvagesia est un genre de plantes à fleurs de la famille des Ochnaceae, comprenant 56 à 87 espèces, et dont l'espèce type est Sauvagesia erecta L., 1753. 
 Le nom rend hommage au médecin et botaniste français François Boissier de Sauvages de Lacroix (1706-1767), l'un des premiers correspondants de Carl von Linné (1707-1778) en France.
@@ -512,11 +524,13 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon ITIS:
 Sauvagesia erecta L.
-Selon GBIF       (12 mai 2022)[3] :
+Selon GBIF       (12 mai 2022) :
 Lavradia velloziana Vand. ex Steud., 1821
 Sauvagesia africana (Baill.) Bamps
 Sauvagesia aliciae Sastre
@@ -584,7 +598,7 @@
 Sauvagesia tenella Lam.
 Sauvagesia vellozii (Vell. ex A.St.-Hil.) Sastre
 Sauvagesia vellozoi (Vell. ex A.St.-Hil.) Sastre
-Selon Tropicos                                           (12 mai 2022)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (12 mai 2022) (Attention liste brute contenant possiblement des synonymes) :
 Sauvagesia adima Aubl., 1775
 Sauvagesia africana (Baill.) Bamps, 1967
 Sauvagesia aliciae Sastre, 1978
@@ -625,7 +639,7 @@
 Sauvagesia inconspicua Dwyer, 1939
 Sauvagesia insignis (Ule) Sastre, 1971
 Sauvagesia insolita Queiroz-Lima &amp; D.B.O.S. Cardoso, 2017
-Sauvagesia kappleri Miq., 1850 [1851]
+Sauvagesia kappleri Miq., 1850 
 Sauvagesia laciniata Sastre, 1981
 Sauvagesia lagevianae D.B.O.S. Cardoso, 2011
 Sauvagesia lanceolata Sastre, 1997
@@ -640,7 +654,7 @@
 Sauvagesia nitida Zappi &amp; E. Lucas, 2002
 Sauvagesia nudicaulis Maguire &amp; Wurdack, 1961
 Sauvagesia nutans Pers., 1805
-Sauvagesia oliveirae Harley &amp; Giul., 2005 [2006]
+Sauvagesia oliveirae Harley &amp; Giul., 2005 
 Sauvagesia ovata Mart., 1824
 Sauvagesia paganuccii D.B.O.S. Cardoso &amp; Harley, 2015
 Sauvagesia paniculata D.B.O.S. Cardoso &amp; A.A. Conc., 2008
@@ -653,7 +667,7 @@
 Sauvagesia ramosa (Gleason) Sastre, 1970
 Sauvagesia ramosissima Spruce ex Eichler, 1871
 Sauvagesia rhodoleuca (Diels) M.C.E. Amaral, 2007
-Sauvagesia ribeiroi Harley &amp; Giul., 2005 [2006]
+Sauvagesia ribeiroi Harley &amp; Giul., 2005 
 Sauvagesia roraimensis Ule, 1915
 Sauvagesia rosacea Ule, 1915
 Sauvagesia rubiginosa A. St.-Hil., 1823
@@ -668,7 +682,7 @@
 Sauvagesia sprengelii A. St.-Hil., 1823
 Sauvagesia stenophylla Urb., 1925
 Sauvagesia striata Gleason &amp; Dwyer, 1939
-Sauvagesia surinamensis Miq., 1844 [1845]
+Sauvagesia surinamensis Miq., 1844 
 Sauvagesia tafelbergensis Sastre, 1970
 Sauvagesia tenella Lam., 1797
 Sauvagesia vellozii (Vell. ex A. St.-Hil.) Sastre, 1971
